--- a/data/trans_bre/CoPsoQ_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/CoPsoQ_R2-Dificultad-trans_bre.xlsx
@@ -627,7 +627,7 @@
         <v>-0.0336759775680636</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06270223000616781</v>
+        <v>0.06270223000616783</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.38169782642226</v>
+        <v>-10.1108311331867</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.98528999517425</v>
+        <v>-10.31993096442431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-24.36685190799995</v>
+        <v>-23.92296878928088</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.1646515212005153</v>
+        <v>-0.1610631543709797</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1772157176145475</v>
+        <v>-0.1688144161326585</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3531671777847869</v>
+        <v>-0.3449102791690699</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.550461404920819</v>
+        <v>8.534418486401204</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.569671170264579</v>
+        <v>5.967579360958938</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>28.50720400166546</v>
+        <v>30.92092092164484</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.1527261585786387</v>
+        <v>0.1578991647041087</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1402894569132367</v>
+        <v>0.1102549797939502</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7872491140418389</v>
+        <v>0.9424545130122025</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>-0.09849716709819695</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1631370352278393</v>
+        <v>0.1631370352278394</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.17002297245839</v>
+        <v>-12.27919930753737</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-14.23317527401998</v>
+        <v>-13.83842915817777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-5.431038504506024</v>
+        <v>-6.285428198499418</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2011801581629333</v>
+        <v>-0.1955191507732086</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2252148281875253</v>
+        <v>-0.2253965547756751</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09044359653862262</v>
+        <v>-0.1071173398011378</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.236568352177621</v>
+        <v>4.960437337770814</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.014260100108865</v>
+        <v>2.14868765353997</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.48945110071929</v>
+        <v>22.92870615744481</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.09302898972503588</v>
+        <v>0.09184007236980039</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0353746788178113</v>
+        <v>0.03708235043041123</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5082983191317592</v>
+        <v>0.5501440202715353</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>8.478660247321844</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.766615498327566</v>
+        <v>6.76661549832756</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.1235265522266824</v>
@@ -791,7 +791,7 @@
         <v>0.1582108219099521</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1624469195661265</v>
+        <v>0.1624469195661264</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-15.25498761112401</v>
+        <v>-15.29003819149612</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.636947234146489</v>
+        <v>1.045460910786063</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-6.445745696015829</v>
+        <v>-6.977539892204813</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.248229942393811</v>
+        <v>-0.2415260327617077</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0274389327942928</v>
+        <v>0.01778162492757818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1264140589560297</v>
+        <v>-0.1422401972665241</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7982361313864943</v>
+        <v>0.7260920215890543</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.71276009089234</v>
+        <v>15.2905934071779</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20.1115291565634</v>
+        <v>21.56250430194246</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.009852782080961147</v>
+        <v>0.01306421165168678</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3045492726489848</v>
+        <v>0.3049782524978057</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6246297007415407</v>
+        <v>0.6311812628866226</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>-1.418421909563128</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1.785338417617943</v>
+        <v>1.785338417617932</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.08156639063028696</v>
@@ -873,7 +873,7 @@
         <v>-0.03061265879370451</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05931091773604291</v>
+        <v>0.05931091773604254</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-15.1470860855939</v>
+        <v>-14.20449459537578</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.19440453735505</v>
+        <v>-10.95504642390599</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-9.721501681272278</v>
+        <v>-9.220428267644378</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2595801301493261</v>
+        <v>-0.2422652438992383</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.214081178265636</v>
+        <v>-0.2170074741348675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2788944047658287</v>
+        <v>-0.2519697164164311</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>5.799905991788383</v>
+        <v>6.343888379194326</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.478463422978944</v>
+        <v>9.30582291560583</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.80005053599835</v>
+        <v>13.01750524569991</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1102886369705728</v>
+        <v>0.1211005745093894</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2027753863928972</v>
+        <v>0.2231948585538251</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.4785764125230955</v>
+        <v>0.528063900868772</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-8.724964035580159</v>
+        <v>-8.535436889431992</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.918563336759742</v>
+        <v>-3.731901698807367</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.294815367439281</v>
+        <v>-0.5286294205889459</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.144225890558017</v>
+        <v>-0.1414017698866052</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.06743989614684467</v>
+        <v>-0.06564810182864556</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.02418520102912426</v>
+        <v>-0.01193234948118855</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.003380828177073228</v>
+        <v>0.1344577735884471</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.395619148581882</v>
+        <v>4.299852569777575</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.09066151515582</v>
+        <v>12.94213955449964</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-2.317551263154972e-05</v>
+        <v>0.002368468608068748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.0844242074882513</v>
+        <v>0.08010898894411697</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3720958902781648</v>
+        <v>0.3710947116708171</v>
       </c>
     </row>
     <row r="19">
